--- a/Stats/LogReg_Summary.xlsx
+++ b/Stats/LogReg_Summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreibuliga/Documents/Analysis of Social Networks/SNAproject/Sports/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreibuliga/Documents/Analysis of Social Networks/SNAproject/Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +486,7 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>97.718999999999994</v>
+        <v>97.676000000000002</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.856000000000002</v>
+        <v>25.853999999999999</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>21.033000000000001</v>
+        <v>21.004000000000001</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>14.413</v>
+        <v>14.414</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -542,7 +542,7 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>11.028</v>
+        <v>10.999000000000001</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -556,10 +556,10 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>5.1100000000000003</v>
+        <v>5.1239999999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>3.2300000000000002E-7</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -570,10 +570,10 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>3.4649999999999999</v>
+        <v>3.468</v>
       </c>
       <c r="C8">
-        <v>5.2999999999999998E-4</v>
+        <v>5.2499999999999997E-4</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -584,10 +584,10 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>1.7549999999999999</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="C9">
-        <v>7.9339999999999994E-2</v>
+        <v>6.8179000000000003E-2</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -598,54 +598,54 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>1.623</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="C10">
-        <v>0.10451000000000001</v>
+        <v>0.33759299999999998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B11">
-        <v>0.20200000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="C11">
-        <v>0.84001000000000003</v>
+        <v>0.83803899999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.13800000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C12">
-        <v>0.88993999999999995</v>
+        <v>0.98951100000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>8.8999999999999996E-2</v>
+        <v>-0.104</v>
       </c>
       <c r="C13">
-        <v>0.92900000000000005</v>
+        <v>0.91681100000000004</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.17499999999999999</v>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="C14">
-        <v>0.86099000000000003</v>
+        <v>0.84303700000000004</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,32 +653,32 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>-0.24099999999999999</v>
+        <v>-0.247</v>
       </c>
       <c r="C15">
-        <v>0.80964999999999998</v>
+        <v>0.80469000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.27800000000000002</v>
+        <v>-0.249</v>
       </c>
       <c r="C16">
-        <v>0.78107000000000004</v>
+        <v>0.80365699999999995</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>-0.71199999999999997</v>
+        <v>-0.28100000000000003</v>
       </c>
       <c r="C17">
-        <v>0.47670000000000001</v>
+        <v>0.77875499999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -686,10 +686,10 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>-0.90300000000000002</v>
+        <v>-0.874</v>
       </c>
       <c r="C18">
-        <v>0.36673</v>
+        <v>0.38234499999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -697,43 +697,43 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>-1.0129999999999999</v>
+        <v>-1.0189999999999999</v>
       </c>
       <c r="C19">
-        <v>0.31128</v>
+        <v>0.308334</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-1.073</v>
+        <v>-1.038</v>
       </c>
       <c r="C20">
-        <v>0.28348000000000001</v>
+        <v>0.29932999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>-1.075</v>
+        <v>-1.25</v>
       </c>
       <c r="C21">
-        <v>0.28242</v>
+        <v>0.21116799999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>-1.258</v>
+        <v>-1.28</v>
       </c>
       <c r="C22">
-        <v>0.20821999999999999</v>
+        <v>0.200459</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -741,10 +741,10 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>-1.4670000000000001</v>
+        <v>-1.429</v>
       </c>
       <c r="C23">
-        <v>0.14244999999999999</v>
+        <v>0.152978</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -752,10 +752,10 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>-2.38</v>
+        <v>-2.379</v>
       </c>
       <c r="C24">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7358999999999999E-2</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -766,13 +766,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>-2.5579999999999998</v>
+        <v>-2.625</v>
       </c>
       <c r="C25">
-        <v>1.0529999999999999E-2</v>
+        <v>8.6569999999999998E-3</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -780,10 +780,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-3.19</v>
+        <v>-3.1989999999999998</v>
       </c>
       <c r="C26">
-        <v>1.42E-3</v>
+        <v>1.382E-3</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>-9.9499999999999993</v>
+        <v>-9.9819999999999993</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -822,7 +822,7 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>-11.015000000000001</v>
+        <v>-10.992000000000001</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -836,7 +836,7 @@
         <v>6</v>
       </c>
       <c r="B30">
-        <v>-19.128</v>
+        <v>-19.126000000000001</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>

--- a/Stats/LogReg_Summary.xlsx
+++ b/Stats/LogReg_Summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreibuliga/Documents/Analysis of Social Networks/SNAproject/Stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agusnurh91/Documents/Analysis of Social Networks/SNAproject/Stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,6 +19,9 @@
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>.</t>
   </si>
@@ -141,6 +144,96 @@
   </si>
   <si>
     <t>stars</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Number of comments of an answer</t>
+  </si>
+  <si>
+    <t>Number of users that mark the question as favorite</t>
+  </si>
+  <si>
+    <t>Number of users that upvote the answer subtracted by number of users that downvote the answer</t>
+  </si>
+  <si>
+    <t>Number of words of the answer</t>
+  </si>
+  <si>
+    <t>Number of words of the question</t>
+  </si>
+  <si>
+    <t>Number of tags of the question</t>
+  </si>
+  <si>
+    <t>Number of accepted answers provided by the user</t>
+  </si>
+  <si>
+    <t>Time difference between the registration time of the user and 22th of May 2016</t>
+  </si>
+  <si>
+    <t>Number of views of the user's profile</t>
+  </si>
+  <si>
+    <t>Number of upvotes given by the user</t>
+  </si>
+  <si>
+    <t>Number of views of the question</t>
+  </si>
+  <si>
+    <t>Number of questions with an accepted answer asked by the user</t>
+  </si>
+  <si>
+    <t>Number of all questions asked by the user</t>
+  </si>
+  <si>
+    <t>Number of accepted answers provided by the user divided by number of all answers provided by the user</t>
+  </si>
+  <si>
+    <t>Number of downvotes given by the user</t>
+  </si>
+  <si>
+    <t>Number of questions with an accepted answer asked by the user divided by number of all questions asked by the user</t>
+  </si>
+  <si>
+    <t>The sentiment score of the answer</t>
+  </si>
+  <si>
+    <t>Whether the user has a profile image or not</t>
+  </si>
+  <si>
+    <t>The reputation score of the user</t>
+  </si>
+  <si>
+    <t>Number of all answers provided by the user</t>
+  </si>
+  <si>
+    <t>Number of words of the user's description</t>
+  </si>
+  <si>
+    <t>The sentiment score of the question</t>
+  </si>
+  <si>
+    <t>Whether the user provides a website information in the profile or not</t>
+  </si>
+  <si>
+    <t>Number of words of the question's title</t>
+  </si>
+  <si>
+    <t>Number of comments of the question</t>
+  </si>
+  <si>
+    <t>The difference of time between the answer and the question</t>
+  </si>
+  <si>
+    <t>Number of answers of the question</t>
+  </si>
+  <si>
+    <t>* Features from either the question or the user are for those that is related to the observed answer</t>
+  </si>
+  <si>
+    <t>Relative importance of a node in the network (in this case, a node is a user) based on link analysis algorithm by Google</t>
   </si>
 </sst>
 </file>
@@ -456,18 +549,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -480,8 +574,11 @@
       <c r="D1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -494,8 +591,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -508,8 +608,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -522,8 +625,11 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -536,8 +642,11 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -550,8 +659,11 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -564,8 +676,11 @@
       <c r="D7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -578,8 +693,11 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -592,8 +710,11 @@
       <c r="D9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -603,8 +724,11 @@
       <c r="C10">
         <v>0.33759299999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -614,8 +738,11 @@
       <c r="C11">
         <v>0.83803899999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -625,8 +752,11 @@
       <c r="C12">
         <v>0.98951100000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -636,8 +766,11 @@
       <c r="C13">
         <v>0.91681100000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -647,8 +780,11 @@
       <c r="C14">
         <v>0.84303700000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -658,8 +794,11 @@
       <c r="C15">
         <v>0.80469000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -669,8 +808,11 @@
       <c r="C16">
         <v>0.80365699999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -680,8 +822,11 @@
       <c r="C17">
         <v>0.77875499999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -691,8 +836,11 @@
       <c r="C18">
         <v>0.38234499999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -702,8 +850,11 @@
       <c r="C19">
         <v>0.308334</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -713,8 +864,11 @@
       <c r="C20">
         <v>0.29932999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -724,8 +878,11 @@
       <c r="C21">
         <v>0.21116799999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -735,8 +892,11 @@
       <c r="C22">
         <v>0.200459</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -746,8 +906,11 @@
       <c r="C23">
         <v>0.152978</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -760,8 +923,11 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -774,8 +940,11 @@
       <c r="D25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -788,8 +957,11 @@
       <c r="D26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -802,8 +974,11 @@
       <c r="D27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -816,8 +991,11 @@
       <c r="D28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -830,8 +1008,11 @@
       <c r="D29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -843,6 +1024,14 @@
       </c>
       <c r="D30" t="s">
         <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Stats/LogReg_Summary.xlsx
+++ b/Stats/LogReg_Summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>.</t>
   </si>
@@ -173,15 +173,9 @@
     <t>Time difference between the registration time of the user and 22th of May 2016</t>
   </si>
   <si>
-    <t>Number of views of the user's profile</t>
-  </si>
-  <si>
     <t>Number of upvotes given by the user</t>
   </si>
   <si>
-    <t>Number of views of the question</t>
-  </si>
-  <si>
     <t>Number of questions with an accepted answer asked by the user</t>
   </si>
   <si>
@@ -234,16 +228,41 @@
   </si>
   <si>
     <t>Relative importance of a node in the network (in this case, a node is a user) based on link analysis algorithm by Google</t>
+  </si>
+  <si>
+    <t>Number of users that have viewed of the question</t>
+  </si>
+  <si>
+    <t>Number of users that have viewed the user's profile</t>
+  </si>
+  <si>
+    <t>Number of users that upvote the answer subtracted by number of users that downvote the question</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -265,15 +284,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="55">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,7 +695,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,16 +705,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E1" t="s">
@@ -579,33 +722,33 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>97.676000000000002</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>25.853999999999999</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
@@ -613,16 +756,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>21.004000000000001</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
@@ -630,16 +773,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>14.414</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
@@ -647,16 +790,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>10.999000000000001</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
@@ -664,16 +807,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>5.1239999999999997</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>2.9999999999999999E-7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
@@ -681,16 +824,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>3.468</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>5.2499999999999997E-4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
@@ -698,16 +841,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1.8240000000000001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>6.8179000000000003E-2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
@@ -715,323 +858,337 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.95899999999999996</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.33759299999999998</v>
       </c>
+      <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.20399999999999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.83803899999999998</v>
       </c>
+      <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.98951100000000003</v>
       </c>
+      <c r="D12" s="1"/>
       <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-0.104</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.91681100000000004</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>-0.104</v>
-      </c>
-      <c r="C13">
-        <v>0.91681100000000004</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.84303700000000004</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-0.247</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.80469000000000002</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-0.249</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.80365699999999995</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>-0.19800000000000001</v>
-      </c>
-      <c r="C14">
-        <v>0.84303700000000004</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.77875499999999998</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>-0.247</v>
-      </c>
-      <c r="C15">
-        <v>0.80469000000000002</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>-0.249</v>
-      </c>
-      <c r="C16">
-        <v>0.80365699999999995</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>-0.28100000000000003</v>
-      </c>
-      <c r="C17">
-        <v>0.77875499999999998</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-0.874</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.38234499999999999</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-1.0189999999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.308334</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>-0.874</v>
-      </c>
-      <c r="C18">
-        <v>0.38234499999999999</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-1.038</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.29932999999999998</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
-        <v>-1.0189999999999999</v>
-      </c>
-      <c r="C19">
-        <v>0.308334</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.21116799999999999</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20">
-        <v>-1.038</v>
-      </c>
-      <c r="C20">
-        <v>0.29932999999999998</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-1.28</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.200459</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>-1.25</v>
-      </c>
-      <c r="C21">
-        <v>0.21116799999999999</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-1.429</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.152978</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>-1.28</v>
-      </c>
-      <c r="C22">
-        <v>0.200459</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-2.379</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.7358999999999999E-2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>-1.429</v>
-      </c>
-      <c r="C23">
-        <v>0.152978</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-2.625</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8.6569999999999998E-3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>-2.379</v>
-      </c>
-      <c r="C24">
-        <v>1.7358999999999999E-2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-3.1989999999999998</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.382E-3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>-2.625</v>
-      </c>
-      <c r="C25">
-        <v>8.6569999999999998E-3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-9.8230000000000004</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>-3.1989999999999998</v>
-      </c>
-      <c r="C26">
-        <v>1.382E-3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-9.9819999999999993</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>-9.8230000000000004</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-10.992000000000001</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28">
-        <v>-9.9819999999999993</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-19.126000000000001</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>-10.992000000000001</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>-19.126000000000001</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Stats/LogReg_Summary.xlsx
+++ b/Stats/LogReg_Summary.xlsx
@@ -300,8 +300,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -362,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -390,6 +396,9 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -417,6 +426,9 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,7 +707,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,10 +735,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>97.676000000000002</v>
+        <v>-19.126000000000001</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -740,10 +752,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>25.853999999999999</v>
+        <v>-10.992000000000001</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -757,10 +769,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>21.004000000000001</v>
+        <v>-9.9819999999999993</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -774,10 +786,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>14.414</v>
+        <v>-9.8230000000000004</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -791,16 +803,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>10.999000000000001</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>-3.1989999999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.382E-3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -808,16 +820,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>5.1239999999999997</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.9999999999999999E-7</v>
+        <v>-2.625</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.6569999999999998E-3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>43</v>
@@ -825,16 +837,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>3.468</v>
+        <v>-2.379</v>
       </c>
       <c r="C8" s="1">
-        <v>5.2499999999999997E-4</v>
+        <v>1.7358999999999999E-2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -842,30 +854,28 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1">
-        <v>1.8240000000000001</v>
+        <v>-1.429</v>
       </c>
       <c r="C9" s="1">
-        <v>6.8179000000000003E-2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>0.152978</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>0.95899999999999996</v>
+        <v>-1.28</v>
       </c>
       <c r="C10" s="1">
-        <v>0.33759299999999998</v>
+        <v>0.200459</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
@@ -874,13 +884,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>0.20399999999999999</v>
+        <v>-1.25</v>
       </c>
       <c r="C11" s="1">
-        <v>0.83803899999999998</v>
+        <v>0.21116799999999999</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -889,13 +899,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>-1.038</v>
       </c>
       <c r="C12" s="1">
-        <v>0.98951100000000003</v>
+        <v>0.29932999999999998</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
@@ -904,13 +914,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
-        <v>-0.104</v>
+        <v>-1.0189999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>0.91681100000000004</v>
+        <v>0.308334</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -919,13 +929,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
-        <v>-0.19800000000000001</v>
+        <v>-0.874</v>
       </c>
       <c r="C14" s="1">
-        <v>0.84303700000000004</v>
+        <v>0.38234499999999999</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -934,13 +944,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
-        <v>-0.247</v>
+        <v>-0.28100000000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>0.80469000000000002</v>
+        <v>0.77875499999999998</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
@@ -964,13 +974,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1">
-        <v>-0.28100000000000003</v>
+        <v>-0.247</v>
       </c>
       <c r="C17" s="1">
-        <v>0.77875499999999998</v>
+        <v>0.80469000000000002</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
@@ -979,13 +989,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>-0.874</v>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>0.38234499999999999</v>
+        <v>0.84303700000000004</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
@@ -994,13 +1004,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>-1.0189999999999999</v>
+        <v>-0.104</v>
       </c>
       <c r="C19" s="1">
-        <v>0.308334</v>
+        <v>0.91681100000000004</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
@@ -1009,13 +1019,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>-1.038</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C20" s="1">
-        <v>0.29932999999999998</v>
+        <v>0.98951100000000003</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
@@ -1024,13 +1034,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
-        <v>-1.25</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>0.21116799999999999</v>
+        <v>0.83803899999999998</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" t="s">
@@ -1039,13 +1049,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>-1.28</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>0.200459</v>
+        <v>0.33759299999999998</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" t="s">
@@ -1054,31 +1064,33 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B23" s="1">
-        <v>-1.429</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>0.152978</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>6.8179000000000003E-2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="E23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1">
-        <v>-2.379</v>
+        <v>3.468</v>
       </c>
       <c r="C24" s="1">
-        <v>1.7358999999999999E-2</v>
+        <v>5.2499999999999997E-4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
         <v>58</v>
@@ -1086,16 +1098,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
-        <v>-2.625</v>
-      </c>
-      <c r="C25" s="1">
-        <v>8.6569999999999998E-3</v>
+        <v>5.1239999999999997</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
         <v>59</v>
@@ -1103,16 +1115,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
-        <v>-3.1989999999999998</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.382E-3</v>
+        <v>10.999000000000001</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
         <v>60</v>
@@ -1120,10 +1132,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1">
-        <v>-9.8230000000000004</v>
+        <v>14.414</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>2</v>
@@ -1137,10 +1149,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1">
-        <v>-9.9819999999999993</v>
+        <v>21.004000000000001</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -1154,10 +1166,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
-        <v>-10.992000000000001</v>
+        <v>25.853999999999999</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
@@ -1171,10 +1183,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
-        <v>-19.126000000000001</v>
+        <v>97.676000000000002</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -1194,7 +1206,7 @@
   </sheetData>
   <autoFilter ref="A1:D1">
     <sortState ref="A2:D30">
-      <sortCondition descending="1" ref="B1:B30"/>
+      <sortCondition ref="B1:B30"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
